--- a/Data/india_data.xlsx
+++ b/Data/india_data.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:BJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
